--- a/src/test/java/Resources/TestData.xlsx
+++ b/src/test/java/Resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanuk\IdeaProjects\SeleniumFrameworkwithPOM\src\test\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D9FDF6-459A-4B08-B76F-3FD9632974FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB4DF9-4BDE-434E-8542-1635D26B37C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>aria.joson234@thqqeaaingafemy.com</t>
+    <t>aria.jorrrrr234@thqqeaaingafemy.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/Resources/TestData.xlsx
+++ b/src/test/java/Resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanuk\IdeaProjects\SeleniumFrameworkwithPOM\src\test\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB4DF9-4BDE-434E-8542-1635D26B37C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F529674B-4C48-450E-9A12-EA114E2F6D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>aria.jorrrrr234@thqqeaaingafemy.com</t>
+    <t>aria.jorrrrr2999934@thqqeaaingafemy.com</t>
   </si>
 </sst>
 </file>
